--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -880,6 +881,181 @@
   </si>
   <si>
     <t>Listen up. Everybody.</t>
+  </si>
+  <si>
+    <t>to take a lot of work to do smth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>take a lot of work to do that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>to  miss an opportunity</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Make sure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> you</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> never miss an opportunity</t>
+    </r>
+  </si>
+  <si>
+    <t>to miss out</t>
+  </si>
+  <si>
+    <t>IDEOM</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Don't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>miss out</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ivan is an enthusiastic senior </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>developer with an entrepreneurial spirit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. His </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experiences range across a number of fields and technologies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, but his </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>primary focuses are in Java and JavaScript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, as well as Machine Learning.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">check out this link </t>
+  </si>
+  <si>
+    <t>to check out</t>
+  </si>
+  <si>
+    <t>I'll handle it.</t>
+  </si>
+  <si>
+    <t>Я улажу это/Я разберусь с этим</t>
   </si>
 </sst>
 </file>
@@ -957,7 +1133,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -970,6 +1146,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1274,17 +1451,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E15"/>
+  <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B24" activeCellId="1" sqref="B19 B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="88.140625" customWidth="1"/>
     <col min="5" max="5" width="70.85546875" customWidth="1"/>
   </cols>
@@ -1435,6 +1612,50 @@
       </c>
       <c r="D15" t="s">
         <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="D16" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D19" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1445,71 +1666,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C12"/>
+  <dimension ref="C2:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="105.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="C2" s="1" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="JOB INTERVIEW" sheetId="3" r:id="rId3"/>
+    <sheet name="NEWS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1056,18 +1057,76 @@
   </si>
   <si>
     <t>Я улажу это/Я разберусь с этим</t>
+  </si>
+  <si>
+    <t>US President can no longer shrug off Russia investigation as 'fake news'</t>
+  </si>
+  <si>
+    <t>to shrug off</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Trump's </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>troubles get serious</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">What is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>obstruction of justice</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>?</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1138,15 +1197,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1451,22 +1510,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E19"/>
+  <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" activeCellId="1" sqref="B19 B24"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="70.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="88.109375" customWidth="1"/>
+    <col min="5" max="5" width="70.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1477,7 +1536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1485,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1496,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1507,7 +1566,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1518,7 +1577,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1526,7 +1585,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1537,7 +1596,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1559,7 +1618,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1570,7 +1629,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1581,7 +1640,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1592,7 +1651,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
         <v>49</v>
       </c>
@@ -1606,7 +1665,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -1614,7 +1673,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -1625,7 +1684,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1636,7 +1695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>56</v>
       </c>
@@ -1647,7 +1706,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>56</v>
       </c>
@@ -1656,6 +1715,14 @@
       </c>
       <c r="D19" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D20" t="s">
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1666,75 +1733,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D13"/>
+  <dimension ref="C2:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="105.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>61</v>
       </c>
@@ -1742,8 +1809,14 @@
         <v>62</v>
       </c>
     </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C14" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1751,18 +1824,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="30.44140625" customWidth="1"/>
+    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,20 +4,21 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="JOB INTERVIEW" sheetId="3" r:id="rId3"/>
     <sheet name="NEWS" sheetId="4" r:id="rId4"/>
+    <sheet name="Лист3" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -956,9 +957,6 @@
     <t>to miss out</t>
   </si>
   <si>
-    <t>IDEOM</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">Don't </t>
     </r>
@@ -1059,9 +1057,6 @@
     <t>Я улажу это/Я разберусь с этим</t>
   </si>
   <si>
-    <t>US President can no longer shrug off Russia investigation as 'fake news'</t>
-  </si>
-  <si>
     <t>to shrug off</t>
   </si>
   <si>
@@ -1107,13 +1102,512 @@
       </rPr>
       <t>?</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was hailed as a hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for rescuing the three-year-old from her burning home.</t>
+    </r>
+  </si>
+  <si>
+    <t>COLLOCATION</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">US President can no longer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shrug off</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Russia investigation as 'fake news'</t>
+    </r>
+  </si>
+  <si>
+    <t>PHRAS. VERB</t>
+  </si>
+  <si>
+    <t>to be hailed as a hero /heɪl/</t>
+  </si>
+  <si>
+    <t>hail sb/sth as sth  /heɪl/</t>
+  </si>
+  <si>
+    <t>to say publicly and enthusiastically that someone or something is something very good</t>
+  </si>
+  <si>
+    <t>to say publicly and enthusiastically that someone is a hero</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">People </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>hailed him as a hero</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The jury </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>began deliberations</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on Thursday.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> deliberation /dɪˌlɪbəˈreɪʃən/</t>
+  </si>
+  <si>
+    <t>careful thought or talk about a subject before a decision is made</t>
+  </si>
+  <si>
+    <t>obstruction /əbˈstrʌkt/  of justice /ˈdʒʌstɪs/</t>
+  </si>
+  <si>
+    <t>to try to stop something from happening or developing / the system of laws that judges or punishes people</t>
+  </si>
+  <si>
+    <t>to obstruct /əbˈstrʌkt/</t>
+  </si>
+  <si>
+    <t>to try to stop something from happening or developing or moving or stops someone from seeing something</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He tried to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">obstruct a police investigation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The fallen tree</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> obstructed the traffic. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>There was a pillar</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> obstructing our view.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The new bridge will be supported by 100 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>concrete pillars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. He was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a pillar of the local community</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>pillar /ˈpɪlər/</t>
+  </si>
+  <si>
+    <t>NOUN</t>
+  </si>
+  <si>
+    <t>a tall structure made of stone, wood, etc that supports something above it; someone or something who is very important to a place, organization, etc</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deliberated for ten hours before reaching a decision</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>deliberate /dɪˈlɪbəreɪt/</t>
+  </si>
+  <si>
+    <t>/ɔːɡˈzɪliəri/</t>
+  </si>
+  <si>
+    <t>auxiliary</t>
+  </si>
+  <si>
+    <t>auxiliary /ɔːɡˈzɪliəri/</t>
+  </si>
+  <si>
+    <t>ADJECTIVE</t>
+  </si>
+  <si>
+    <t>eligible /ˈelɪdʒəbl/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Only people over 18 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are eligible to vote</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. You might</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> be eligible for a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> grant for your studies. You </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are eligible for  this position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If you are eligible to do something, you can do it because you are in the right situation</t>
+  </si>
+  <si>
+    <t>providing extra help or support</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">MSD uses two </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auxiliary arrays</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">:, an </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>auxiliary nurse</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The Czech playwright, Capek, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coined the word 'robot'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Bertrand Meyer </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coined</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the term Open Closed Principle</t>
+    </r>
+  </si>
+  <si>
+    <t>to coin</t>
+  </si>
+  <si>
+    <t>to be the first person who uses a new word or phrase</t>
+  </si>
+  <si>
+    <t>/ˌkəʊɪnˈsaɪd/</t>
+  </si>
+  <si>
+    <t>coincide</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1171,6 +1665,13 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1192,7 +1693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1206,6 +1707,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1510,22 +2012,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
+  <dimension ref="B2:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="88.109375" customWidth="1"/>
-    <col min="5" max="5" width="70.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1536,7 +2038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -1544,7 +2046,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -1555,7 +2057,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -1566,7 +2068,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -1577,7 +2079,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -1585,7 +2087,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -1596,7 +2098,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -1607,7 +2109,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -1618,7 +2120,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -1629,7 +2131,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -1640,7 +2142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -1651,8 +2153,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C14" s="3" t="s">
@@ -1665,7 +2167,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -1673,7 +2175,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -1684,7 +2186,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -1695,34 +2197,155 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>56</v>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
         <v>56</v>
       </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>68</v>
+      </c>
       <c r="C19" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D19" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C20" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D20" t="s">
-        <v>63</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="7"/>
+      <c r="C26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
   </sheetData>
@@ -1739,79 +2362,79 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="105.44140625" customWidth="1"/>
-    <col min="4" max="4" width="39.109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="105.42578125" customWidth="1"/>
+    <col min="4" max="4" width="39.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" t="s">
         <v>61</v>
       </c>
-      <c r="D13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1824,18 +2447,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1845,21 +2468,74 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="30.44140625" customWidth="1"/>
-    <col min="3" max="3" width="32.77734375" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>66</v>
+        <v>89</v>
+      </c>
+      <c r="C2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1601,6 +1601,130 @@
   </si>
   <si>
     <t>coincide</t>
+  </si>
+  <si>
+    <t>relevant /ˈreləvənt/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> related or useful to what is happening or being talked about</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>relevant skills for this position</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Education should </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be relevant to children's needs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. He asked a very relevant question at the meeting. Your report should focus on the relevant information. I like to go to a meeting armed with the relevant facts.</t>
+    </r>
+  </si>
+  <si>
+    <t>coincide /ˌkəʊɪnˈsaɪd/</t>
+  </si>
+  <si>
+    <t>to happen at the same time as something else</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The band's American tour </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>coincided with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the release of their second album.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pure coincidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that we both married dentists.</t>
+    </r>
+  </si>
+  <si>
+    <t>/kəʊˈɪnsɪdəns/</t>
+  </si>
+  <si>
+    <t>coincidence /kəʊˈɪnsɪdəns/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">coincidence </t>
   </si>
 </sst>
 </file>
@@ -2012,10 +2136,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E29"/>
+  <dimension ref="B2:E31"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2299,12 +2423,18 @@
       </c>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+        <v>105</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
@@ -2322,30 +2452,56 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C29" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D29" t="s">
+        <v>96</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C30" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B31" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2510,15 +2666,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C3"/>
+  <dimension ref="B2:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
     <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2526,7 +2682,7 @@
       <c r="B2" t="s">
         <v>89</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="3" t="s">
         <v>88</v>
       </c>
     </row>
@@ -2534,9 +2690,20 @@
       <c r="B3" t="s">
         <v>101</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="3" t="s">
         <v>100</v>
       </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="C5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1725,6 +1725,158 @@
   </si>
   <si>
     <t xml:space="preserve">coincidence </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) The police have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealed for more information</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealed to the commission</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to keep the hospital open. 2)Cycling has never </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealed to me</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. 3) He is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>appealing against</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a ten-year prison sentence.</t>
+    </r>
+  </si>
+  <si>
+    <t>1)to strongly request something, often publicly 2)to attract or interest someone 3)to formally ask someone to change an official or legal decision</t>
+  </si>
+  <si>
+    <t>to appeal for/to/against smth</t>
+  </si>
+  <si>
+    <t>to destroy something with fire, or to be destroyed by fire</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Many people were </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>burn to the death</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in their vecha during the terrible fire. The factory burned to the ground. He dropped his cigarette and burnt a hole in his jacket. I burnt all his letters.</t>
+    </r>
+  </si>
+  <si>
+    <t>to burn /bɜːn/  burnt, burned</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Avoid distributed transactions </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>if at all possible</t>
+    </r>
+  </si>
+  <si>
+    <t>if at all possible</t>
   </si>
 </sst>
 </file>
@@ -2136,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E31"/>
+  <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2436,72 +2588,111 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C29" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D29" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C30" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D30" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B29" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D29" t="s">
-        <v>96</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B30" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C31" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" t="s">
+        <v>96</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B33" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C33" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D33" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>103</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2668,7 +2859,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1877,6 +1877,21 @@
   </si>
   <si>
     <t>if at all possible</t>
+  </si>
+  <si>
+    <t>No mercy!</t>
+  </si>
+  <si>
+    <t>Don't move, fatty!</t>
+  </si>
+  <si>
+    <t>Whooping</t>
+  </si>
+  <si>
+    <t>Grunting</t>
+  </si>
+  <si>
+    <t>Scoffing</t>
   </si>
 </sst>
 </file>
@@ -2290,20 +2305,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A14" workbookViewId="0">
       <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="88.109375" customWidth="1"/>
+    <col min="5" max="5" width="75.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2314,7 +2329,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2322,7 +2337,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2333,7 +2348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2344,7 +2359,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2355,7 +2370,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2363,7 +2378,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2374,7 +2389,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2385,7 +2400,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -2396,7 +2411,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -2407,7 +2422,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -2418,7 +2433,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2429,7 +2444,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -2443,7 +2458,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -2451,7 +2466,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -2462,7 +2477,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -2473,7 +2488,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
@@ -2484,7 +2499,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
@@ -2495,7 +2510,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2506,7 +2521,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -2520,7 +2535,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -2534,7 +2549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2548,7 +2563,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2560,7 +2575,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2574,7 +2589,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2588,7 +2603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2602,7 +2617,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
@@ -2616,7 +2631,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2630,7 +2645,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2642,7 +2657,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>91</v>
       </c>
@@ -2656,7 +2671,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
@@ -2670,7 +2685,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2684,7 +2699,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
@@ -2703,75 +2718,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D14"/>
+  <dimension ref="C2:D19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="105.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
@@ -2779,9 +2794,34 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C15" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C16" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="3" t="s">
+        <v>124</v>
       </c>
     </row>
   </sheetData>
@@ -2798,12 +2838,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2821,14 +2861,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
@@ -2839,7 +2879,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -2863,13 +2903,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>89</v>
       </c>
@@ -2877,7 +2917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -2885,7 +2925,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -2893,7 +2933,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="129">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1892,6 +1892,43 @@
   </si>
   <si>
     <t>Scoffing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DVDs  are going to be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">fifty percent off </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>for one week.</t>
+    </r>
+  </si>
+  <si>
+    <t>crafty perk</t>
+  </si>
+  <si>
+    <t>clever at getting what you want, especially by deceiving people</t>
+  </si>
+  <si>
+    <t>crafty</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2021,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1999,6 +2036,7 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2718,10 +2756,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D19"/>
+  <dimension ref="C2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2809,19 +2847,37 @@
         <v>121</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C20" s="8" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="EXPRESSIONS" sheetId="2" r:id="rId2"/>
     <sheet name="JOB INTERVIEW" sheetId="3" r:id="rId3"/>
     <sheet name="NEWS" sheetId="4" r:id="rId4"/>
     <sheet name="Лист3" sheetId="5" r:id="rId5"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1877,6 +1877,117 @@
   </si>
   <si>
     <t>if at all possible</t>
+  </si>
+  <si>
+    <t>I mean actually think of it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">the higher it goes the more valuable it is. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(About the wall along the border with Mexica)</t>
+    </r>
+  </si>
+  <si>
+    <t>I'll deal with you later.</t>
+  </si>
+  <si>
+    <t>Я разберусь\серьезно поговорю с тобой позже</t>
+  </si>
+  <si>
+    <t>at all costs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We must do that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>at all costs</t>
+    </r>
+  </si>
+  <si>
+    <t>при любых обстоятельсвах(случаях)\как только можно</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">мне </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>придется сделать</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> это</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gonna have to do</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that.</t>
+    </r>
+  </si>
+  <si>
+    <t>to be gonna have to do smth</t>
+  </si>
+  <si>
+    <t>Let's not do smth rush</t>
+  </si>
+  <si>
+    <t>Let's not do that rush</t>
   </si>
 </sst>
 </file>
@@ -2288,10 +2399,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E34"/>
+  <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2694,6 +2805,45 @@
       <c r="D34" s="1" t="s">
         <v>118</v>
       </c>
+      <c r="E34" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>131</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2703,17 +2853,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D14"/>
+  <dimension ref="C2:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="16.5703125" customWidth="1"/>
     <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.140625" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.25">
@@ -2780,8 +2930,26 @@
       </c>
     </row>
     <row r="14" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C15" s="1" t="s">
         <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C16" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C17" s="3" t="s">
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1988,6 +1988,9 @@
   </si>
   <si>
     <t>Let's not do that rush</t>
+  </si>
+  <si>
+    <t>without you my life is pointless</t>
   </si>
 </sst>
 </file>
@@ -2401,20 +2404,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A31" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="88.109375" customWidth="1"/>
+    <col min="5" max="5" width="75.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2425,7 +2428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2433,7 +2436,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2455,7 +2458,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2466,7 +2469,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -2554,7 +2557,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -2631,7 +2634,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -2645,7 +2648,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2659,7 +2662,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2671,7 +2674,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2685,7 +2688,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2699,7 +2702,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2713,7 +2716,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2741,7 +2744,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2753,7 +2756,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>91</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>91</v>
       </c>
@@ -2781,7 +2784,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>48</v>
       </c>
@@ -2809,7 +2812,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>48</v>
       </c>
@@ -2820,7 +2823,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>48</v>
       </c>
@@ -2834,7 +2837,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
@@ -2853,75 +2856,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D17"/>
+  <dimension ref="C2:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="105.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
@@ -2929,7 +2932,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
@@ -2937,19 +2940,24 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>121</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2966,12 +2974,12 @@
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2989,14 +2997,14 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
@@ -3007,7 +3015,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -3031,13 +3039,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>89</v>
       </c>
@@ -3045,7 +3053,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -3053,7 +3061,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -3061,7 +3069,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="C5" s="3"/>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -1991,18 +1991,1023 @@
   </si>
   <si>
     <t>without you my life is pointless</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He powered up his computer </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>and opened Firefox browser</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Then he</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shut the computer down.</t>
+    </r>
+  </si>
+  <si>
+    <t>to shut down smth</t>
+  </si>
+  <si>
+    <t>to power up smth (in American English)</t>
+  </si>
+  <si>
+    <t>to provide something with energy so that it can begin to operate</t>
+  </si>
+  <si>
+    <r>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> powered up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>his computer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and opened Firefox browser. Warm water acts as fuel for a hurricane's engine, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>powering it up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Then he </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shut the computer down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. They had to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> shut down one of the engines</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The company plans to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>shut down four factories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cut 10,000 jobs</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>If a business or a large piece of equipment shuts down or someone shuts it down, it stops operating</t>
+  </si>
+  <si>
+    <t>to spring up</t>
+  </si>
+  <si>
+    <t>to start to exist suddenly</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CoderDojo’s</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are springing up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all over the country. Thousands of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">new businesses have sprung up </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in the past couple of years.</t>
+    </r>
+  </si>
+  <si>
+    <t>strongly denies smth</t>
+  </si>
+  <si>
+    <t>allegation /ˌæl.əˈɡeɪ.ʃən/</t>
+  </si>
+  <si>
+    <t>a statement, made without giving proof, that someone has done something wrong or illegal</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The news has </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>caused a scandal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>smth causes a scandal</t>
+  </si>
+  <si>
+    <t>smth (seriously) hurt her reputation</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">These allegations have </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>seriously hurt her reputation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strongly denies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the allegation. He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strenuously denies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all the allegations against him.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>There is</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> no substance to the allegation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>These</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> allegations have seriously hurt her reputation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>He</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> strenuously denies all the allegations against him. Allegations that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Mr Dwight was receiving money from known criminals have caused a scandal. </t>
+    </r>
+  </si>
+  <si>
+    <t>substance /ˈsʌb.stəns/</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> importance, seriousness, or relationship to real facts</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There is no </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>substance in/to the allegation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. This new information</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gives substance to the stories</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> we have heard.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Let’s look closer at computer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> science to get a better understanding of the distinction.</t>
+    </r>
+  </si>
+  <si>
+    <t>Let’s look closer at smth</t>
+  </si>
+  <si>
+    <t>to be about smth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">applicable /əˈplɪk.ə.bəl/ </t>
+  </si>
+  <si>
+    <t>affecting or relating to a person or thing</t>
+  </si>
+  <si>
+    <r>
+      <t>applicable ways to think. This part of the law is only</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> applicable to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> companies employing more than five people. The new qualifications </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are applicable to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all European countries.</t>
+    </r>
+  </si>
+  <si>
+    <t>Under the hood</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Let's now </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>look under the hood to see how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the software goes about transmitting data so quickly. To understand how it really works </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>we need to look under the hood</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>a metaphorical area that contains the underlying implementation of something - e.g. a piece of hardware, a piece of software, an idea, etc.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">It is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about me and about you</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">! it is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about the security of the company</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Computer science </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is no more</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about computers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> than astronomy is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>about telescopes.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">strenuously /ˈstren.ju.əsli/ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>strenuously denies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all the allegations against him. Most local residents strenuously object to the building proposals.</t>
+    </r>
+  </si>
+  <si>
+    <t>ADVERB</t>
+  </si>
+  <si>
+    <t>strenuous /ˈstren.ju.əs/</t>
+  </si>
+  <si>
+    <t>needing or using a lot of physical or mental effort or energy</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He rarely does anything </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>more strenuous than changing the channels on the television</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+His doctor advised him not to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>do any strenuous exercise</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>stop fearing the computer</t>
+  </si>
+  <si>
+    <t>to fear</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">However, if you do </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>have a passion for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> it</t>
+    </r>
+  </si>
+  <si>
+    <t>to have a passion for smth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">If you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>are experiencing the symptoms</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> like these you should consult you doctor. It was the worst pain </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>I had ever experienced</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experienced a lot of difficulty in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> selling our house.</t>
+    </r>
+  </si>
+  <si>
+    <t>to experience</t>
+  </si>
+  <si>
+    <t>If you experience something, it happens to you, or you feel it</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2083,21 +3088,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2402,22 +3410,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E37"/>
+  <dimension ref="B2:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D58" sqref="D58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="88.109375" customWidth="1"/>
-    <col min="5" max="5" width="75.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="88.140625" customWidth="1"/>
+    <col min="5" max="5" width="75.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -2428,7 +3436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -2436,7 +3444,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -2447,7 +3455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -2458,7 +3466,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -2469,7 +3477,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -2477,7 +3485,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -2488,7 +3496,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -2499,7 +3507,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -2510,7 +3518,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -2521,7 +3529,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -2532,7 +3540,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -2543,7 +3551,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -2557,7 +3565,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -2565,7 +3573,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -2576,7 +3584,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -2587,7 +3595,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
@@ -2598,7 +3606,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
@@ -2609,7 +3617,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -2620,7 +3628,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -2634,7 +3642,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -2648,7 +3656,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -2662,7 +3670,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
@@ -2674,7 +3682,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
@@ -2688,7 +3696,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -2702,7 +3710,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -2716,7 +3724,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
@@ -2730,7 +3738,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
@@ -2744,7 +3752,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
@@ -2756,96 +3764,310 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
       <c r="B31" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" t="s">
-        <v>96</v>
+        <v>144</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>151</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B32" s="7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>93</v>
+        <v>152</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>154</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
       <c r="C33" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B34" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B35" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>102</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="E35" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="7" t="s">
+    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B36" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B37" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B38" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E38" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="E39" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="7" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C35" s="3" t="s">
+      <c r="C40" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="7" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C36" s="3" t="s">
+      <c r="C41" s="3" t="s">
         <v>129</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="D41" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="7" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="3" t="s">
+      <c r="C42" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D42" s="1" t="s">
         <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B43" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B44" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E44" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B45" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D45" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B49" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B50" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B51" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E51" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="C52" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="E54" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2856,75 +4078,75 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D18"/>
+  <dimension ref="C2:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" activeCellId="1" sqref="C19 C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.5546875" customWidth="1"/>
-    <col min="3" max="3" width="105.44140625" customWidth="1"/>
-    <col min="4" max="4" width="48.6640625" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" customWidth="1"/>
+    <col min="3" max="3" width="105.42578125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
@@ -2932,7 +4154,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
@@ -2940,24 +4162,29 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C19" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -2971,15 +4198,15 @@
   <dimension ref="C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="66.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
@@ -2994,17 +4221,17 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="59.6640625" customWidth="1"/>
-    <col min="3" max="3" width="41.88671875" customWidth="1"/>
-    <col min="4" max="4" width="102.33203125" customWidth="1"/>
+    <col min="2" max="2" width="59.7109375" customWidth="1"/>
+    <col min="3" max="3" width="41.85546875" customWidth="1"/>
+    <col min="4" max="4" width="102.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
@@ -3015,7 +4242,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -3039,13 +4266,13 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.33203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>89</v>
       </c>
@@ -3053,7 +4280,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -3061,7 +4288,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -3069,7 +4296,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="C5" s="3"/>
     </row>
   </sheetData>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -2876,12 +2876,6 @@
     </r>
   </si>
   <si>
-    <t>stop fearing the computer</t>
-  </si>
-  <si>
-    <t>to fear</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">However, if you do </t>
     </r>
@@ -2910,6 +2904,1162 @@
   </si>
   <si>
     <t>to have a passion for smth</t>
+  </si>
+  <si>
+    <t>to experience</t>
+  </si>
+  <si>
+    <t>If you experience something, it happens to you, or you feel it</t>
+  </si>
+  <si>
+    <t>to patch</t>
+  </si>
+  <si>
+    <t>patch your trousers</t>
+  </si>
+  <si>
+    <t>to fear /fɪər/</t>
+  </si>
+  <si>
+    <t>to be worried or frightened that something bad might happen or might have happened</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stop fearing the computer</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; Most </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>older employees fear unemployment</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.; Police </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fear that</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the couple may have drowned.</t>
+    </r>
+  </si>
+  <si>
+    <t>to fear the worst</t>
+  </si>
+  <si>
+    <t>If you fear the worst, you are frightened that an unpleasant situation will become much worse</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When there was no sign of the children, rescuers </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feared the worst</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>/ˈwʌri/</t>
+  </si>
+  <si>
+    <t>Don't worry - she'll be all right.</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>/ˌvɒlənˈtɪər/ волантиа(р)</t>
+  </si>
+  <si>
+    <t>to volunteer /ˌvɒlənˈtɪər/</t>
+  </si>
+  <si>
+    <t>to offer to do something without being asked or told to do it</t>
+  </si>
+  <si>
+    <t>smth is jammed /dʒæm/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>schedule is jammed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. The streets </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>were jammed with cars</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>to fill a place completely</t>
+  </si>
+  <si>
+    <t>to repair a hole in a piece of clothing or other material by sewing a piece of material over it</t>
+  </si>
+  <si>
+    <t>to freak smb out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> Rob </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volunteered to look</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after the kids. He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>volunteered for</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> active service. they volunteer to handle responsibilities.</t>
+    </r>
+  </si>
+  <si>
+    <t>to handle</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">You will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>gain experience in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> documenting and presenting designs.</t>
+    </r>
+  </si>
+  <si>
+    <t>to gain experience in</t>
+  </si>
+  <si>
+    <t>to transplante</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>grew up in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> St. Paul, and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>transplanted</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> happily </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Northfield </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>upon coming to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Carleton.</t>
+    </r>
+  </si>
+  <si>
+    <t>to pay tribute to</t>
+  </si>
+  <si>
+    <t>tribute /ˈtrɪbjuːt/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Saffie Roussos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>has paid tribute to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> his "stunning" young girl. The President </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paid tribute to (= expressed his admiration for)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the brave soldiers who had defended the country.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The concert was organized </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as a tribute to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the singer who died last year. The President </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>paid tribute to (= expressed his admiration for)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the brave soldiers who had defended the country.</t>
+    </r>
+  </si>
+  <si>
+    <t>to break down</t>
+  </si>
+  <si>
+    <t>to derive</t>
+  </si>
+  <si>
+    <t>1)to come from or be developed from something 2)to get a positive feeling or advantage from someone or something</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)The name </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>derives from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Latin. 2)I </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>derive great pleasure from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> gardening. Despite the joy she </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>derives from</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> debugging.</t>
+    </r>
+  </si>
+  <si>
+    <t>She was a huge character</t>
+  </si>
+  <si>
+    <t>to be a huge character</t>
+  </si>
+  <si>
+    <t>to provide</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This booklet </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides useful information about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> local services. It's a new scheme </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to provide schools with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> free computers. Medical staff are on call to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide backup in case of an emergency</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. We </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provide the description of</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a surveillance system. This </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provides solid evidence</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that he committed the crime. The report </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>provided the stimulus for more studies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>to supply something to someone</t>
+  </si>
+  <si>
+    <t>to suddenly become very angry, frightened, or surprised, or to make someone do this</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">5 Things That </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Freak Me Out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in America. I hated that film, it totally </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>freaked me out</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>to figure out</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) I never could </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> she saw in him. The police couldn't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIGURE OUT how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the burglars had got into the warehouse. 2)try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out a way to do it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out a problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>1) Find the answer to a problem\to finally understand something or someone after a lot of thought 2) discover, determine 3) solve</t>
+  </si>
+  <si>
+    <t>to feature /ˈfiːtʃər/</t>
+  </si>
+  <si>
+    <t>be featured in/on sth</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">His work </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is featured in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a special documentary tonight. The school has been </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>featured on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> television.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a new movie </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>featuring Will Smith</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; The album will </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feature music from all over the world</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Women's magazines regularly </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>feature diets and exercise regimes</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. 2)Garlic</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> features prominently in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> her recipes.</t>
+    </r>
+  </si>
+  <si>
+    <t>1)to include someone or something as an important part 2)have a part in sth</t>
+  </si>
+  <si>
+    <t>important or famous</t>
+  </si>
+  <si>
+    <t>prominent / prominently /ˈprɒmɪnənt/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He is a </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prominent figure</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; He remains </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>prominent as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a player and coach</t>
+    </r>
+  </si>
+  <si>
+    <t>to talk or think about something again, with the intention of improving it or changing it</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Gun </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>laws</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> need to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>be revisited</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. You will have a chance </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to revisit</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and apply what you have learned in our courses </t>
+    </r>
+  </si>
+  <si>
+    <t>to revisit /riːˈvɪz.ɪt/</t>
+  </si>
+  <si>
+    <t>to employ in /ɪmˈplɔɪ/</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>stuff</t>
+  </si>
+  <si>
+    <t>1) to use 2) If a person or company employs someone, they pay that person to work for them</t>
   </si>
   <si>
     <r>
@@ -2980,26 +4130,834 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> selling our house.</t>
-    </r>
-  </si>
-  <si>
-    <t>to experience</t>
-  </si>
-  <si>
-    <t>If you experience something, it happens to you, or you feel it</t>
+      <t xml:space="preserve"> selling our house. I have never </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>experienced these problems</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) you can </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employ in designing</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> novel systems; The Net is </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>commonly employed in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> everyday life. 2) The company</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employs 2500 staff</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employ her to look after their children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. He</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> employed a private detective to follow his wife</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Her next </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>question</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was not so easily </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. She was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employed as a cook</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> for many years. Companies </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>employ people on short contracts</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. </t>
+    </r>
+  </si>
+  <si>
+    <t>deal with sb/sth</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>How well do you think</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the company </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handled your complaint</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">? He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">had more work than he could handle. The work is being handled </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>by our office in Moscow</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> They volunteer to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handle responsibilities</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I could </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handle the challenge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. I think you </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>handled that situation very well</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. She</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> handled the crisis with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> total assurance. This </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>issue</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> needs </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to be handled</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> carefully. He could not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">handle this situation. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">This was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> I just couldn't handle. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>She knew how to</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> handle publicity. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">The library </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>routinely handles a wide variety of enquiries.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1)Venus Williams </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>breaks down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in news conference 2)My car </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broke down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> on the way to work. 3)Their marriage </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>broke down</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> after only two years.</t>
+    </r>
+  </si>
+  <si>
+    <t>1)to become very upset and start crying 2)If a machine or vehicle breaks down, it stops working 3)If a system, relationship, or discussion breaks down, it fails because there is a problem or disagreement</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I'm sorry I can't talk now, I'm </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>in a rush</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>in a rush</t>
+  </si>
+  <si>
+    <t>Let's not do anything in a rush</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">We use email to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface with our customers</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Develop systems that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>interface multiple sensors</t>
+    </r>
+  </si>
+  <si>
+    <t>to communicate with people or electronic equipment, or to make people or electronic equipment communicate</t>
+  </si>
+  <si>
+    <t>to interface (with)</t>
+  </si>
+  <si>
+    <t>to boost</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">14 Hilarious TV Series Scenes to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">boost Your English. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Getting the job has</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> boosted my confidence. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>The new service helped</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> boost profits by 10%.</t>
+    </r>
+  </si>
+  <si>
+    <t>to increase or improve something considerably, greatly</t>
+  </si>
+  <si>
+    <t>surveillance /sɜːˈveɪləns/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The police have kept the man </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>under strict surveillance</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3067,6 +5025,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3088,24 +5052,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3410,10 +5378,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:E81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C81" sqref="C81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3422,7 +5390,7 @@
     <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="35.85546875" customWidth="1"/>
     <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" customWidth="1"/>
+    <col min="5" max="5" width="77.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4033,42 +6001,364 @@
       <c r="D51" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E51" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B52" s="7" t="s">
+        <v>49</v>
+      </c>
       <c r="C52" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+        <v>177</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E52" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
       <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B55" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E55" t="s">
         <v>174</v>
       </c>
-      <c r="D53" s="1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+    </row>
+    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B56" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="D54" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="E54" t="s">
-        <v>177</v>
-      </c>
+      <c r="E56" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="B58" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E58" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B59" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>228</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E59" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="B60" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E60" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B61" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B62" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>205</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B63" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B64" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B65" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="E66" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="E68" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B69" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B70" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B71" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="B72" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B73" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>224</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E74" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="E76" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="B77" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="E77" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4078,10 +6368,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D19"/>
+  <dimension ref="C2:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" activeCellId="1" sqref="C19 C26"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4185,6 +6475,11 @@
     <row r="19" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C20" s="3" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4260,16 +6555,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" customWidth="1"/>
+    <col min="3" max="3" width="28.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25">
@@ -4297,7 +6592,30 @@
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+      <c r="B5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>185</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>231</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="191">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -2988,6 +2988,114 @@
   </si>
   <si>
     <t>If you experience something, it happens to you, or you feel it</t>
+  </si>
+  <si>
+    <t>curse</t>
+  </si>
+  <si>
+    <t>/kɜːs/ кэс</t>
+  </si>
+  <si>
+    <t>course</t>
+  </si>
+  <si>
+    <t>/kɔːs/  коос</t>
+  </si>
+  <si>
+    <t>1)magic words that are intended to bring bad luck to someone 2)a rude or offensive word or phrase 3)something that causes harm or unhappiness, often over a long period of time</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>put a curse on someon</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>e; curse words; Traffic is one of the curses of modern living.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Get brave. Force yourself to be in</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an uncomfortable situation and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>remind yourself that it’s no big dea</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">l. </t>
+    </r>
+  </si>
+  <si>
+    <t>The point is to always be moving forward.</t>
+  </si>
+  <si>
+    <t>reach your goals</t>
+  </si>
+  <si>
+    <t>explore the wonderful world of entrepreneurship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">to explore </t>
+  </si>
+  <si>
+    <t>to reach your goals</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> curse /kɜːs/ кэс</t>
   </si>
 </sst>
 </file>
@@ -3088,7 +3196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -3106,6 +3214,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3410,22 +3519,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E54"/>
+  <dimension ref="B2:E57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="75.85546875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="88.109375" customWidth="1"/>
+    <col min="5" max="5" width="75.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -3436,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -3444,7 +3553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -3455,7 +3564,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -3466,7 +3575,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -3477,7 +3586,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -3485,7 +3594,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -3496,7 +3605,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -3507,7 +3616,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -3518,7 +3627,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -3529,7 +3638,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -3540,7 +3649,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -3551,7 +3660,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -3565,7 +3674,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -3573,7 +3682,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -3584,7 +3693,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -3595,7 +3704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
@@ -3606,7 +3715,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
@@ -3617,7 +3726,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -3628,7 +3737,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -3642,7 +3751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -3656,7 +3765,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -3670,7 +3779,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
@@ -3682,7 +3791,7 @@
       </c>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
@@ -3696,7 +3805,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -3710,7 +3819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -3724,7 +3833,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
@@ -3738,7 +3847,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
@@ -3752,7 +3861,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
@@ -3764,7 +3873,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>84</v>
       </c>
@@ -3778,7 +3887,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>84</v>
       </c>
@@ -3792,7 +3901,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
@@ -3806,7 +3915,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>91</v>
       </c>
@@ -3820,7 +3929,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>91</v>
       </c>
@@ -3834,7 +3943,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>91</v>
       </c>
@@ -3848,7 +3957,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>167</v>
       </c>
@@ -3862,7 +3971,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
         <v>91</v>
       </c>
@@ -3876,7 +3985,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="7" t="s">
         <v>48</v>
       </c>
@@ -3890,7 +3999,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
         <v>48</v>
       </c>
@@ -3901,7 +4010,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
@@ -3915,7 +4024,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
@@ -3926,7 +4035,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B43" s="7" t="s">
         <v>49</v>
       </c>
@@ -3940,7 +4049,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>49</v>
       </c>
@@ -3954,7 +4063,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B45" s="7" t="s">
         <v>68</v>
       </c>
@@ -3968,7 +4077,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="7" t="s">
         <v>48</v>
       </c>
@@ -3979,7 +4088,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="7" t="s">
         <v>48</v>
       </c>
@@ -3990,7 +4099,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
@@ -4001,7 +4110,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
@@ -4012,7 +4121,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
@@ -4023,7 +4132,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
@@ -4037,7 +4146,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C52" s="3" t="s">
         <v>172</v>
       </c>
@@ -4045,7 +4154,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
@@ -4056,7 +4165,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="54" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B54" s="7" t="s">
         <v>49</v>
       </c>
@@ -4070,83 +4179,119 @@
         <v>177</v>
       </c>
     </row>
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D19"/>
+  <dimension ref="C2:D21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" activeCellId="1" sqref="C19 C26"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="105.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
@@ -4154,7 +4299,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
@@ -4162,29 +4307,39 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>133</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="9" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4201,12 +4356,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
@@ -4224,14 +4379,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
@@ -4242,7 +4397,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -4260,19 +4415,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C5"/>
+  <dimension ref="B2:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>89</v>
       </c>
@@ -4280,7 +4435,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -4288,7 +4443,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -4296,8 +4451,21 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C5" s="3"/>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>180</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>181</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="252">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -4938,6 +4938,12 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>To get a feel for how many possible keys this creates, consider that</t>
+  </si>
+  <si>
+    <t>To get a feel for smth</t>
   </si>
 </sst>
 </file>
@@ -5381,7 +5387,7 @@
   <dimension ref="B2:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+      <selection activeCell="C78" sqref="C78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6355,6 +6361,17 @@
       </c>
       <c r="D78" s="1" t="s">
         <v>249</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="3:3" x14ac:dyDescent="0.25">

--- a/ENGLISH/VOCABULARY.xlsx
+++ b/ENGLISH/VOCABULARY.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="299">
   <si>
     <t>To surpass /səˈpɑːs/</t>
   </si>
@@ -3671,99 +3671,6 @@
     <t>to figure out</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">1) I never could </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>figure out what</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> she saw in him. The police couldn't </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>FIGURE OUT how</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> the burglars had got into the warehouse. 2)try to </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>figure out a way to do it.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> 3) </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>figure out a problem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-  </si>
-  <si>
     <t>1) Find the answer to a problem\to finally understand something or someone after a lot of thought 2) discover, determine 3) solve</t>
   </si>
   <si>
@@ -4944,18 +4851,574 @@
   </si>
   <si>
     <t>To get a feel for smth</t>
+  </si>
+  <si>
+    <t>I doff my hat/cap to sb/sth.</t>
+  </si>
+  <si>
+    <t>to doff your hat to sb/sth /dɒf/</t>
+  </si>
+  <si>
+    <t>Keep your eyes on the road. You are driving</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He got drunk and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">barfed </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>all over the carpet.</t>
+    </r>
+  </si>
+  <si>
+    <t>to barf</t>
+  </si>
+  <si>
+    <t>IDEOM</t>
+  </si>
+  <si>
+    <t>to barf /bɑːrf/</t>
+  </si>
+  <si>
+    <t>/bɑːrf/</t>
+  </si>
+  <si>
+    <t>to vomit; блевать</t>
+  </si>
+  <si>
+    <t>Gotto go? Yeah. Homicide.</t>
+  </si>
+  <si>
+    <t>/ˈhɒmɪsaɪd/</t>
+  </si>
+  <si>
+    <t>homicide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">homicide /ˈhɒmɪsaɪd/ </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">There were over 400 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>homicides</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in Chicago last year.</t>
+    </r>
+  </si>
+  <si>
+    <t>the crime of killing someone</t>
+  </si>
+  <si>
+    <t>it's just me.</t>
+  </si>
+  <si>
+    <t>Go back to sleep.</t>
+  </si>
+  <si>
+    <t>to compare smb like a clam /klæm/</t>
+  </si>
+  <si>
+    <t>a small sea creature you can eat that has a shell in two parts; морской моллюск</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Why do you let her talk to you like that? She </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compared you like a clam</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>!</t>
+    </r>
+  </si>
+  <si>
+    <t>to collude with /kəˈluːd/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Jared Kushner: 'I Did Not </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Collude</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> With Russia'. The company </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>colluded with</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> competitors to fix prices. </t>
+    </r>
+  </si>
+  <si>
+    <t>to do something secretly with another person or group, in order to deceive or cheat others
+тайно сговариваться</t>
+  </si>
+  <si>
+    <t xml:space="preserve">collusion /kəˈluːʒən/ </t>
+  </si>
+  <si>
+    <t>to do  something secretly with another person or group, in order to deceive or cheat others тайный сговор</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He was accused of being </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">in collusion with </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the terrorists.</t>
+    </r>
+  </si>
+  <si>
+    <t>to abandon /əˈbændən/</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">They </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">abandoned the final battle </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>to take their son to USA for treatment.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The match was abandoned </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>because of rain.</t>
+    </r>
+  </si>
+  <si>
+    <t>to stop doing something before it is finished, or to stop following a plan, idea, etc
+отказываться (от чего-л.), прекращать (что-л., делать что-л.)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">His father </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abandoned the family</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when Mike was 12. They were forced to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>abandon the car.</t>
+    </r>
+  </si>
+  <si>
+    <t>to leave someone or something somewhere, sometimes not returning to get them
+покидать, оставлять</t>
+  </si>
+  <si>
+    <t>/ˈraɪvəl/</t>
+  </si>
+  <si>
+    <t>rival </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1) I never could </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out what</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> she saw in him. I am trying</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to figure out what happened.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The police couldn't </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>FIGURE OUT how</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the burglars had got into the warehouse. 2)try to </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out a way to do it.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> 3) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>figure out a problem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>/dɪˈlɪbərət/</t>
+  </si>
+  <si>
+    <t>deliberate /dɪˈlɪbərət/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">/dɪˈlɪbəreɪt/ </t>
+  </si>
+  <si>
+    <t>to deliberate</t>
+  </si>
+  <si>
+    <t>to consider something carefully before making a decision
+обдумывать</t>
+  </si>
+  <si>
+    <t>(adjective) deliberate</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a deliberate attempt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> by them to deceive us.</t>
+    </r>
+  </si>
+  <si>
+    <t>done intentionally, or planned
+преднамеренный, умышленный</t>
+  </si>
+  <si>
+    <t>deliberately</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">He </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>deliberately lied to</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> the police.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> intentionally, having planned to do something
+умышленно</t>
+  </si>
+  <si>
+    <t>GRAMMAR</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">My loss of faith was </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>as frightening as it was sudden</t>
+    </r>
+  </si>
+  <si>
+    <t>as adjective as it is smth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -5032,10 +5495,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF292929"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -5058,28 +5530,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -5384,22 +5858,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E81"/>
+  <dimension ref="B2:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C78" sqref="C78"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
-    <col min="3" max="3" width="35.85546875" customWidth="1"/>
-    <col min="4" max="4" width="88.140625" customWidth="1"/>
-    <col min="5" max="5" width="77.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
+    <col min="3" max="3" width="35.88671875" customWidth="1"/>
+    <col min="4" max="4" width="88.109375" customWidth="1"/>
+    <col min="5" max="5" width="77.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:5" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
       <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
@@ -5410,7 +5887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" s="3" t="s">
         <v>5</v>
       </c>
@@ -5418,7 +5895,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C4" s="3" t="s">
         <v>9</v>
       </c>
@@ -5429,7 +5906,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
@@ -5440,7 +5917,10 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>18</v>
       </c>
@@ -5451,7 +5931,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C7" s="3" t="s">
         <v>22</v>
       </c>
@@ -5459,7 +5939,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>24</v>
       </c>
@@ -5470,7 +5950,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C9" s="3" t="s">
         <v>28</v>
       </c>
@@ -5481,7 +5961,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="10" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>31</v>
       </c>
@@ -5492,7 +5972,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>38</v>
       </c>
@@ -5503,7 +5983,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
       <c r="C12" s="3" t="s">
         <v>41</v>
       </c>
@@ -5514,7 +5997,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>37</v>
       </c>
@@ -5525,7 +6008,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="7" t="s">
         <v>49</v>
       </c>
@@ -5539,7 +6022,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>48</v>
       </c>
@@ -5547,7 +6030,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>48</v>
       </c>
@@ -5558,7 +6041,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>48</v>
       </c>
@@ -5569,7 +6052,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="7" t="s">
         <v>68</v>
       </c>
@@ -5580,7 +6063,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="7" t="s">
         <v>68</v>
       </c>
@@ -5591,7 +6074,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="7" t="s">
         <v>49</v>
       </c>
@@ -5602,7 +6085,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>66</v>
       </c>
@@ -5616,7 +6099,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="7" t="s">
         <v>49</v>
       </c>
@@ -5630,7 +6113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B23" s="7" t="s">
         <v>49</v>
       </c>
@@ -5644,7 +6127,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B24" s="7" t="s">
         <v>49</v>
       </c>
@@ -5654,9 +6137,11 @@
       <c r="D24" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="E24" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B25" s="7" t="s">
         <v>49</v>
       </c>
@@ -5670,7 +6155,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>49</v>
       </c>
@@ -5684,7 +6169,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B27" s="7" t="s">
         <v>49</v>
       </c>
@@ -5698,7 +6183,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B28" s="7" t="s">
         <v>49</v>
       </c>
@@ -5712,7 +6197,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B29" s="7" t="s">
         <v>84</v>
       </c>
@@ -5726,7 +6211,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="7" t="s">
         <v>84</v>
       </c>
@@ -5738,7 +6223,7 @@
       </c>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B31" s="7" t="s">
         <v>84</v>
       </c>
@@ -5752,7 +6237,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="32" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B32" s="7" t="s">
         <v>84</v>
       </c>
@@ -5766,7 +6251,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="7" t="s">
         <v>91</v>
       </c>
@@ -5780,7 +6265,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="34" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B34" s="7" t="s">
         <v>91</v>
       </c>
@@ -5794,7 +6279,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="35" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B35" s="7" t="s">
         <v>91</v>
       </c>
@@ -5808,7 +6293,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="36" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B36" s="7" t="s">
         <v>91</v>
       </c>
@@ -5822,7 +6307,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="37" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B37" s="7" t="s">
         <v>167</v>
       </c>
@@ -5836,624 +6321,757 @@
         <v>169</v>
       </c>
     </row>
-    <row r="38" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B38" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B39" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="C38" s="3" t="s">
+      <c r="C39" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E39" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B39" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B40" s="7" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>124</v>
+        <v>286</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+        <v>291</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C42" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="3" t="s">
         <v>130</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D44" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="43" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B43" s="7" t="s">
+    <row r="45" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B45" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C45" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="D45" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="E45" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="44" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B44" s="7" t="s">
+    <row r="46" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B46" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C44" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D46" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="45" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B45" s="7" t="s">
+    <row r="47" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B47" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C47" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="D45" s="8" t="s">
+      <c r="D47" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B46" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B47" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B49" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>147</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>161</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E51" s="1" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="52" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>156</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B52" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="D52" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E52" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>157</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B53" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C53" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B54" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="E54" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B55" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>182</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E55" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B54" s="7" t="s">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D56" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="55" spans="2:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="B55" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="E55" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B56" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="E56" s="1" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
       <c r="B57" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>194</v>
+        <v>232</v>
       </c>
       <c r="E57" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" ht="90" x14ac:dyDescent="0.25">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B58" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>195</v>
-      </c>
-      <c r="D58" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="E58" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>175</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B59" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>228</v>
+        <v>187</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E59" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="60" spans="2:5" ht="60" x14ac:dyDescent="0.25">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" ht="86.4" x14ac:dyDescent="0.3">
       <c r="B60" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="D60" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="E60" t="s">
         <v>234</v>
       </c>
-      <c r="E60" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="61" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B61" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>198</v>
+        <v>227</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="62" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>226</v>
+      </c>
+      <c r="E61" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="62" spans="2:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="B62" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>205</v>
+        <v>228</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="E62" s="1" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="63" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+        <v>233</v>
+      </c>
+      <c r="E62" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B63" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>210</v>
+        <v>198</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="2:5" ht="45" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="64" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="B64" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="65" spans="2:5" ht="30" x14ac:dyDescent="0.25">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B65" s="7" t="s">
         <v>49</v>
       </c>
       <c r="C65" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B66" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="D67" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="D65" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B66" s="7" t="s">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C66" s="3" t="s">
+      <c r="C68" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D68" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B67" s="7" t="s">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C67" s="3" t="s">
+      <c r="C69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D69" s="1" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B68" s="7" t="s">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C68" s="3" t="s">
+      <c r="C70" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="D70" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E70" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="69" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B69" s="7" t="s">
+    <row r="71" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B71" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C69" s="3" t="s">
+      <c r="C71" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="D69" s="1" t="s">
+      <c r="D71" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="E71" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="70" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B70" s="7" t="s">
+    </row>
+    <row r="72" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B72" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C70" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="D70" s="1" t="s">
+      <c r="D72" s="1" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B71" s="7" t="s">
+    <row r="73" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B73" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C73" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="D71" s="1" t="s">
+      <c r="D73" s="1" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="72" spans="2:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="B72" s="7" t="s">
+    <row r="74" spans="2:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="B74" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C72" s="3" t="s">
+      <c r="C74" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="D74" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E72" s="1" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B73" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B74" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="C74" s="3" t="s">
-        <v>224</v>
-      </c>
-      <c r="D74" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="E74" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B75" s="7" t="s">
         <v>48</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="D75" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="E76" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77" s="3" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B76" s="7" t="s">
+      <c r="D77" s="1" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C76" s="3" t="s">
+      <c r="C78" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E78" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B79" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="D76" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="E76" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="77" spans="2:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="B77" s="7" t="s">
+      <c r="D79" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E79" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B80" s="7" t="s">
         <v>49</v>
       </c>
-      <c r="C77" s="3" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E77" t="s">
+      <c r="C80" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B81" s="7"/>
+      <c r="C81" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B82" s="7"/>
+      <c r="C82" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="83" spans="2:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B83" s="7"/>
+      <c r="C83" s="3" t="s">
+        <v>274</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B84" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="C84" s="3" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B78" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C78" s="3" t="s">
+      <c r="D84" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D78" s="1" t="s">
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B85" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="D85" s="1" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B79" s="7" t="s">
+    <row r="86" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B86" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C87" s="10" t="s">
+        <v>257</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E87" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C88" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B89" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>298</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B90" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="C79" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="D79" s="1" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81" s="10"/>
+      <c r="C90" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="E90" t="s">
+        <v>269</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:D20"/>
+  <dimension ref="C2:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.5703125" customWidth="1"/>
-    <col min="3" max="3" width="105.42578125" customWidth="1"/>
-    <col min="4" max="4" width="48.7109375" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" customWidth="1"/>
+    <col min="3" max="3" width="105.44140625" customWidth="1"/>
+    <col min="4" max="4" width="48.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:4" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="11" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C11" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C12" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C13" s="3" t="s">
         <v>60</v>
       </c>
@@ -6461,7 +7079,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C14" s="3" t="s">
         <v>122</v>
       </c>
@@ -6469,34 +7087,54 @@
         <v>123</v>
       </c>
     </row>
-    <row r="15" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="16" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C16" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C17" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C18" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
-        <v>241</v>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="3" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C22" s="3" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C23" s="3" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.3">
+      <c r="C24" s="3" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -6513,12 +7151,12 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="66.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:3" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="C2" s="1" t="s">
         <v>57</v>
       </c>
@@ -6536,14 +7174,14 @@
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="59.7109375" customWidth="1"/>
-    <col min="3" max="3" width="41.85546875" customWidth="1"/>
-    <col min="4" max="4" width="102.28515625" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" customWidth="1"/>
+    <col min="3" max="3" width="41.88671875" customWidth="1"/>
+    <col min="4" max="4" width="102.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
         <v>77</v>
       </c>
@@ -6554,7 +7192,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B4" s="3" t="s">
         <v>75</v>
       </c>
@@ -6572,19 +7210,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C8"/>
+  <dimension ref="B2:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="33.140625" customWidth="1"/>
-    <col min="3" max="3" width="28.28515625" customWidth="1"/>
+    <col min="2" max="2" width="33.109375" customWidth="1"/>
+    <col min="3" max="3" width="28.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>89</v>
       </c>
@@ -6592,7 +7230,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>101</v>
       </c>
@@ -6600,7 +7238,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>111</v>
       </c>
@@ -6608,7 +7246,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
         <v>184</v>
       </c>
@@ -6616,7 +7254,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
         <v>185</v>
       </c>
@@ -6624,14 +7262,54 @@
         <v>186</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>231</v>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>255</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>262</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B11" s="11" t="s">
+        <v>283</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>290</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B13" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
